--- a/Daisy-xls/ResearchPages/research-malignant-mesothelioma.xlsx
+++ b/Daisy-xls/ResearchPages/research-malignant-mesothelioma.xlsx
@@ -46,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -85,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,6 +114,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -122,7 +143,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -135,6 +155,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -456,42 +479,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="11">
+        <v>637667</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>41535</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
